--- a/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{BB20A420-F846-45C2-97F3-4DF1545A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845D18AD-4FA1-4DBA-9CA0-14AE2CE77940}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BB20A420-F846-45C2-97F3-4DF1545A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB599D73-85B2-480E-B28D-A00145E50CA4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA3" sqref="AA3:AA17"/>
+      <selection pane="topRight" activeCell="Y3" sqref="Y3:Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,32 +1282,32 @@
         <v>0</v>
       </c>
       <c r="X2" s="4"/>
-      <c r="Y2" s="9">
-        <f t="shared" ref="Y2" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="9">
-        <f t="shared" ref="Z2" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
+      <c r="Y2" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
-        <f t="shared" ref="AB2" si="2">Y2*(1-AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="9">
-        <f t="shared" ref="AC2" si="3">Y2*AA2 + Z2</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2" si="0">Y2*(1-AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" ref="AC2" si="1">Y2*AA2 + Z2</f>
         <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f t="shared" ref="AD2" si="4">1.35*Y2+1.5*Z2</f>
+        <f t="shared" ref="AD2" si="2">1.35*Y2+1.5*Z2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="9">
-        <f t="shared" ref="AF2" si="5">AB2+AC2</f>
+      <c r="AF2" s="2">
+        <f>AB2+AC2</f>
         <v>0</v>
       </c>
       <c r="AP2" s="2"/>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A60" si="6">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A60" si="3">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1385,33 +1385,35 @@
         <v>10</v>
       </c>
       <c r="X3" s="7" t="str">
-        <f t="shared" ref="X3" si="7">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9">
+        <f t="shared" ref="X3" si="4">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
         <v>26</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
         <v>10</v>
       </c>
       <c r="AA3" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB3" s="9">
-        <f t="shared" ref="AB3:AB60" si="8">Y3*(1-AA3)</f>
+      <c r="AB3" s="2">
+        <f t="shared" ref="AB3:AB60" si="5">Y3*(1-AA3)</f>
         <v>13</v>
       </c>
-      <c r="AC3" s="9">
-        <f t="shared" ref="AC3:AC60" si="9">Y3*AA3 + Z3</f>
+      <c r="AC3" s="2">
+        <f t="shared" ref="AC3:AC60" si="6">Y3*AA3 + Z3</f>
         <v>23</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3:AD60" si="10">1.35*Y3+1.5*Z3</f>
+        <f t="shared" ref="AD3:AD60" si="7">1.35*Y3+1.5*Z3</f>
         <v>50.1</v>
       </c>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="9">
-        <f t="shared" ref="AF3:AF60" si="11">AB3+AC3</f>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF60" si="8">AB3+AC3</f>
         <v>36</v>
       </c>
       <c r="AP3" s="2"/>
@@ -1419,7 +1421,7 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1491,30 +1493,32 @@
       <c r="X4" s="7">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="2">
+        <f t="shared" ref="Y4:Y60" si="9">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
         <v>90</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:Z60" si="10">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
         <v>30</v>
       </c>
       <c r="AA4" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4:AB60" si="11">Y4*(1-AA4)</f>
+        <v>45</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4:AC60" si="12">Y4*AA4 + Z4</f>
+        <v>75</v>
+      </c>
+      <c r="AD4" s="8">
+        <f t="shared" si="7"/>
+        <v>166.5</v>
+      </c>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="2">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="AD4" s="8">
-        <f t="shared" si="10"/>
-        <v>166.5</v>
-      </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9">
-        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="AP4" s="2"/>
@@ -1522,7 +1526,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -1592,33 +1596,35 @@
         <v>15</v>
       </c>
       <c r="X5" s="7" t="str">
-        <f t="shared" ref="X5:X59" si="12">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="9">
+        <f t="shared" ref="X5:X59" si="13">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="2">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AA5" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="2">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="12"/>
+        <v>33.5</v>
+      </c>
+      <c r="AD5" s="8">
+        <f t="shared" si="7"/>
+        <v>72.45</v>
+      </c>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="2">
         <f t="shared" si="8"/>
-        <v>18.5</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="9"/>
-        <v>33.5</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="10"/>
-        <v>72.45</v>
-      </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9">
-        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="AP5" s="2"/>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1698,30 +1704,32 @@
       <c r="X6" s="7">
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="2">
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="2">
+        <f t="shared" si="10"/>
         <v>40.5</v>
       </c>
       <c r="AA6" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="2">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="12"/>
+        <v>97.5</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="7"/>
+        <v>214.65</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="2">
         <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="9"/>
-        <v>97.5</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="10"/>
-        <v>214.65</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9">
-        <f t="shared" si="11"/>
         <v>154.5</v>
       </c>
       <c r="AP6" s="2"/>
@@ -1729,7 +1737,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1799,33 +1807,35 @@
         <v>17</v>
       </c>
       <c r="X7" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="2">
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="AA7" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="2">
+        <f t="shared" si="11"/>
+        <v>18.5</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="12"/>
+        <v>35.5</v>
+      </c>
+      <c r="AD7" s="8">
+        <f t="shared" si="7"/>
+        <v>75.45</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="2">
         <f t="shared" si="8"/>
-        <v>18.5</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="9"/>
-        <v>35.5</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="10"/>
-        <v>75.45</v>
-      </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9">
-        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="AP7" s="2"/>
@@ -1833,7 +1843,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -1905,30 +1915,32 @@
       <c r="X8" s="7">
         <v>0</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="2">
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="2">
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="AA8" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="2">
+        <f t="shared" si="11"/>
+        <v>59.5</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="12"/>
+        <v>102.5</v>
+      </c>
+      <c r="AD8" s="8">
+        <f t="shared" si="7"/>
+        <v>225.15</v>
+      </c>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="2">
         <f t="shared" si="8"/>
-        <v>59.5</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="9"/>
-        <v>102.5</v>
-      </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="10"/>
-        <v>225.15</v>
-      </c>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9">
-        <f t="shared" si="11"/>
         <v>162</v>
       </c>
       <c r="AP8" s="2"/>
@@ -1936,7 +1948,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -2006,40 +2018,42 @@
         <v>18</v>
       </c>
       <c r="X9" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="2">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="AA9" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="2">
+        <f t="shared" si="11"/>
+        <v>20.5</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="12"/>
+        <v>38.5</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="7"/>
+        <v>82.35</v>
+      </c>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="2">
         <f t="shared" si="8"/>
-        <v>20.5</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="9"/>
-        <v>38.5</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="10"/>
-        <v>82.35</v>
-      </c>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="9">
-        <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2111,30 +2125,32 @@
       <c r="X10" s="7">
         <v>0</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="2">
+        <f t="shared" si="9"/>
         <v>122.5</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="2">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="AA10" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="2">
+        <f t="shared" si="11"/>
+        <v>61.25</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="12"/>
+        <v>97.25</v>
+      </c>
+      <c r="AD10" s="8">
+        <f t="shared" si="7"/>
+        <v>219.375</v>
+      </c>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="2">
         <f t="shared" si="8"/>
-        <v>61.25</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="9"/>
-        <v>97.25</v>
-      </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="10"/>
-        <v>219.375</v>
-      </c>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="9">
-        <f t="shared" si="11"/>
         <v>158.5</v>
       </c>
       <c r="AP10" s="2"/>
@@ -2142,7 +2158,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2212,40 +2228,42 @@
         <v>12</v>
       </c>
       <c r="X11" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="2">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AA11" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="2">
+        <f t="shared" si="11"/>
+        <v>20.5</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="12"/>
+        <v>32.5</v>
+      </c>
+      <c r="AD11" s="8">
+        <f t="shared" si="7"/>
+        <v>73.349999999999994</v>
+      </c>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="2">
         <f t="shared" si="8"/>
-        <v>20.5</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="9"/>
-        <v>32.5</v>
-      </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="10"/>
-        <v>73.349999999999994</v>
-      </c>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="9">
-        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2317,30 +2335,32 @@
       <c r="X12" s="7">
         <v>0</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="2">
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="2">
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="AA12" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="2">
+        <f t="shared" si="11"/>
+        <v>64.5</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="AD12" s="8">
+        <f t="shared" si="7"/>
+        <v>230.4</v>
+      </c>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="2">
         <f t="shared" si="8"/>
-        <v>64.5</v>
-      </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="9"/>
-        <v>102</v>
-      </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="10"/>
-        <v>230.4</v>
-      </c>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="9">
-        <f t="shared" si="11"/>
         <v>166.5</v>
       </c>
       <c r="AP12" s="2"/>
@@ -2348,7 +2368,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2418,33 +2438,35 @@
         <v>18</v>
       </c>
       <c r="X13" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="2">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="AA13" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="2">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="AD13" s="8">
+        <f t="shared" si="7"/>
+        <v>83.7</v>
+      </c>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="2">
         <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="10"/>
-        <v>83.7</v>
-      </c>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="9">
-        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AP13" s="2"/>
@@ -2452,7 +2474,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2524,37 +2546,39 @@
       <c r="X14" s="7">
         <v>0</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="2">
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="2">
+        <f t="shared" si="10"/>
         <v>40.5</v>
       </c>
       <c r="AA14" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="2">
+        <f t="shared" si="11"/>
+        <v>57.5</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="2">
         <f t="shared" si="8"/>
-        <v>57.5</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="10"/>
-        <v>216</v>
-      </c>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="9">
-        <f t="shared" si="11"/>
         <v>155.5</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2624,33 +2648,35 @@
         <v>15</v>
       </c>
       <c r="X15" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="9"/>
         <v>33.6</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="2">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AA15" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="2">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="12"/>
+        <v>31.8</v>
+      </c>
+      <c r="AD15" s="8">
+        <f t="shared" si="7"/>
+        <v>67.860000000000014</v>
+      </c>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="2">
         <f t="shared" si="8"/>
-        <v>16.8</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="9"/>
-        <v>31.8</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="10"/>
-        <v>67.860000000000014</v>
-      </c>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="9">
-        <f t="shared" si="11"/>
         <v>48.6</v>
       </c>
       <c r="AP15" s="2"/>
@@ -2658,7 +2684,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2730,30 +2756,32 @@
       <c r="X16" s="7">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="2">
+        <f t="shared" si="9"/>
         <v>112.5</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="2">
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="AA16" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="2">
+        <f t="shared" si="11"/>
+        <v>56.25</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="12"/>
+        <v>93.75</v>
+      </c>
+      <c r="AD16" s="8">
+        <f t="shared" si="7"/>
+        <v>208.125</v>
+      </c>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="2">
         <f t="shared" si="8"/>
-        <v>56.25</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="9"/>
-        <v>93.75</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="10"/>
-        <v>208.125</v>
-      </c>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="9">
-        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="AP16" s="2"/>
@@ -2761,7 +2789,7 @@
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2831,33 +2859,35 @@
         <v>16</v>
       </c>
       <c r="X17" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="2">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="AA17" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="2">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="AD17" s="8">
+        <f t="shared" si="7"/>
+        <v>83.4</v>
+      </c>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="2">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="10"/>
-        <v>83.4</v>
-      </c>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="9">
-        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AP17" s="2"/>
@@ -2865,7 +2895,7 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -2930,20 +2960,39 @@
       <c r="X18" s="7">
         <v>0</v>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="8"/>
+      <c r="Y18" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>0</v>
+      </c>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="9"/>
+      <c r="AF18" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -3013,37 +3062,43 @@
         <v>15</v>
       </c>
       <c r="X19" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AC19" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="7"/>
+        <v>76.5</v>
+      </c>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -3115,37 +3170,39 @@
       <c r="X20" s="7">
         <v>0</v>
       </c>
-      <c r="Y20" s="9">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>15</v>
+      <c r="Y20" s="2">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="2">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="AD20" s="8">
+        <f t="shared" si="7"/>
+        <v>151.65</v>
+      </c>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="10"/>
-        <v>76.5</v>
-      </c>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="9">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -3215,40 +3272,42 @@
         <v>12</v>
       </c>
       <c r="X21" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="AC21" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="9">
-        <v>79</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>30</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="7"/>
+        <v>29.475000000000001</v>
+      </c>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="2">
         <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="10"/>
-        <v>151.65</v>
-      </c>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="9">
-        <f t="shared" si="11"/>
-        <v>109</v>
+        <v>20.5</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -3320,37 +3379,39 @@
       <c r="X22" s="7">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" s="9">
-        <v>12</v>
+      <c r="Y22" s="2">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="10"/>
+        <v>33</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="2">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="7"/>
+        <v>158.85000000000002</v>
+      </c>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="2">
         <f t="shared" si="8"/>
-        <v>8.5</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="10"/>
-        <v>29.475000000000001</v>
-      </c>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="9">
-        <f t="shared" si="11"/>
-        <v>20.5</v>
+        <v>114</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B23" t="s">
@@ -3420,40 +3481,42 @@
         <v>19</v>
       </c>
       <c r="X23" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AC23" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="9">
-        <v>81</v>
-      </c>
-      <c r="Z23" s="9">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="7"/>
+        <v>82.5</v>
+      </c>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="2">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="10"/>
-        <v>158.85000000000002</v>
-      </c>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="9">
-        <f t="shared" si="11"/>
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B24" t="s">
@@ -3525,37 +3588,39 @@
       <c r="X24" s="7">
         <v>0</v>
       </c>
-      <c r="Y24" s="9">
-        <v>40</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>19</v>
+      <c r="Y24" s="2">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="10"/>
+        <v>41</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="2">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="7"/>
+        <v>216.75</v>
+      </c>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="2">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="10"/>
-        <v>82.5</v>
-      </c>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="9">
-        <f t="shared" si="11"/>
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B25" t="s">
@@ -3625,40 +3690,42 @@
         <v>18</v>
       </c>
       <c r="X25" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AC25" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
-        <v>115</v>
-      </c>
-      <c r="Z25" s="9">
-        <v>41</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="7"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="2">
         <f t="shared" si="8"/>
-        <v>115</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="10"/>
-        <v>216.75</v>
-      </c>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="9">
-        <f t="shared" si="11"/>
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B26" t="s">
@@ -3730,37 +3797,39 @@
       <c r="X26" s="7">
         <v>0</v>
       </c>
-      <c r="Y26" s="9">
-        <v>36</v>
-      </c>
-      <c r="Z26" s="9">
-        <v>18</v>
+      <c r="Y26" s="2">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="10"/>
+        <v>37.5</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="2">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="7"/>
+        <v>191.25</v>
+      </c>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="2">
         <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="10"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="9">
-        <f t="shared" si="11"/>
-        <v>54</v>
+        <v>137.5</v>
       </c>
       <c r="AP26" s="2"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B27" t="s">
@@ -3830,40 +3899,42 @@
         <v>15</v>
       </c>
       <c r="X27" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="AC27" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="9">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="9">
-        <v>37.5</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="8">
+        <f t="shared" si="7"/>
+        <v>64.349999999999994</v>
+      </c>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="2">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="10"/>
-        <v>191.25</v>
-      </c>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="9">
-        <f t="shared" si="11"/>
-        <v>137.5</v>
+        <v>46</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B28" t="s">
@@ -3928,19 +3999,38 @@
       <c r="X28" s="7">
         <v>0</v>
       </c>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="8"/>
+      <c r="Y28" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>0</v>
+      </c>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="9"/>
+      <c r="AF28" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AP28" s="2"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B29" t="s">
@@ -4010,39 +4100,41 @@
         <v>10</v>
       </c>
       <c r="X29" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="AC29" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>31</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>15</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="8">
+        <f t="shared" si="7"/>
+        <v>47.400000000000006</v>
+      </c>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="2">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="10"/>
-        <v>64.349999999999994</v>
-      </c>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="9">
-        <f t="shared" si="11"/>
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B30" t="s">
@@ -4114,32 +4206,38 @@
       <c r="X30" s="7">
         <v>0</v>
       </c>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
+      <c r="Y30" s="2">
+        <f t="shared" si="9"/>
+        <v>32.5</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="10"/>
+        <v>18.5</v>
+      </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-      <c r="AB30" s="9">
+      <c r="AB30" s="2">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="12"/>
+        <v>18.5</v>
+      </c>
+      <c r="AD30" s="8">
+        <f t="shared" si="7"/>
+        <v>71.625</v>
+      </c>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B31" t="s">
@@ -4209,39 +4307,41 @@
         <v>8</v>
       </c>
       <c r="X31" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="9">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="9">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="2">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="10"/>
-        <v>47.400000000000006</v>
-      </c>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="9">
-        <f t="shared" si="11"/>
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B32" t="s">
@@ -4313,36 +4413,38 @@
       <c r="X32" s="7">
         <v>0</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Y32" s="2">
+        <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
-      <c r="Z32" s="9">
-        <v>18.5</v>
+      <c r="Z32" s="2">
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="9">
+      <c r="AB32" s="2">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AD32" s="8">
+        <f t="shared" si="7"/>
+        <v>73.875</v>
+      </c>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="2">
         <f t="shared" si="8"/>
-        <v>32.5</v>
-      </c>
-      <c r="AC32" s="9">
-        <f t="shared" si="9"/>
-        <v>18.5</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="10"/>
-        <v>71.625</v>
-      </c>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="9">
-        <f t="shared" si="11"/>
-        <v>51</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -4412,39 +4514,41 @@
         <v>15</v>
       </c>
       <c r="X33" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AC33" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
-        <v>8</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD33" s="8">
+        <f t="shared" si="7"/>
+        <v>60.300000000000004</v>
+      </c>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="9">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B34" t="s">
@@ -4516,36 +4620,38 @@
       <c r="X34" s="7">
         <v>0</v>
       </c>
-      <c r="Y34" s="9">
-        <v>32.5</v>
-      </c>
-      <c r="Z34" s="9">
-        <v>20</v>
+      <c r="Y34" s="2">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="10"/>
+        <v>21.5</v>
       </c>
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-      <c r="AB34" s="9">
+      <c r="AB34" s="2">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="12"/>
+        <v>21.5</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="7"/>
+        <v>103.80000000000001</v>
+      </c>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="2">
         <f t="shared" si="8"/>
-        <v>32.5</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="10"/>
-        <v>73.875</v>
-      </c>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="9">
-        <f t="shared" si="11"/>
-        <v>52.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B35" t="s">
@@ -4615,39 +4721,41 @@
         <v>14</v>
       </c>
       <c r="X35" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="AC35" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>28</v>
-      </c>
-      <c r="Z35" s="9">
-        <v>15</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="8">
+        <f t="shared" si="7"/>
+        <v>53.400000000000006</v>
+      </c>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="2">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="10"/>
-        <v>60.300000000000004</v>
-      </c>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="9">
-        <f t="shared" si="11"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B36" t="s">
@@ -4719,36 +4827,38 @@
       <c r="X36" s="7">
         <v>0</v>
       </c>
-      <c r="Y36" s="9">
-        <v>53</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>21.5</v>
+      <c r="Y36" s="2">
+        <f t="shared" si="9"/>
+        <v>37.5</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="AA36" s="3">
         <v>0</v>
       </c>
-      <c r="AB36" s="9">
+      <c r="AB36" s="2">
+        <f t="shared" si="11"/>
+        <v>37.5</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AD36" s="8">
+        <f t="shared" si="7"/>
+        <v>80.625</v>
+      </c>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="2">
         <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="9"/>
-        <v>21.5</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="10"/>
-        <v>103.80000000000001</v>
-      </c>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="9">
-        <f t="shared" si="11"/>
-        <v>74.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B37" t="s">
@@ -4818,39 +4928,41 @@
         <v>10</v>
       </c>
       <c r="X37" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AC37" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>24</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>14</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="7"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="2">
         <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="10"/>
-        <v>53.400000000000006</v>
-      </c>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="9">
-        <f t="shared" si="11"/>
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B38" t="s">
@@ -4915,18 +5027,37 @@
       <c r="X38" s="7">
         <v>0</v>
       </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="8"/>
+      <c r="Y38" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>0</v>
+      </c>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="9"/>
+      <c r="AF38" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B39" t="s">
@@ -4996,39 +5127,41 @@
         <v>10</v>
       </c>
       <c r="X39" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AC39" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="9">
-        <v>37.5</v>
-      </c>
-      <c r="Z39" s="9">
-        <v>20</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="8">
+        <f t="shared" si="7"/>
+        <v>48.75</v>
+      </c>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="2">
         <f t="shared" si="8"/>
-        <v>37.5</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="10"/>
-        <v>80.625</v>
-      </c>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="9">
-        <f t="shared" si="11"/>
-        <v>57.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B40" t="s">
@@ -5100,743 +5233,763 @@
       <c r="X40" s="7">
         <v>0</v>
       </c>
-      <c r="Y40" s="9">
-        <v>17</v>
-      </c>
-      <c r="Z40" s="9">
+      <c r="Y40" s="2">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AD40" s="8">
+        <f t="shared" si="7"/>
+        <v>108.75</v>
+      </c>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="2">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>500</v>
+      </c>
+      <c r="G41" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H41">
+        <v>1576</v>
+      </c>
+      <c r="I41">
+        <v>1870</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.22</v>
+      </c>
+      <c r="L41">
+        <v>2.33</v>
+      </c>
+      <c r="M41">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="N41">
+        <v>0.04</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="V41" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="W41">
+        <v>12</v>
+      </c>
+      <c r="X41" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="11"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AD41" s="8">
+        <f t="shared" si="7"/>
+        <v>34.875</v>
+      </c>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="2">
+        <f t="shared" si="8"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>500</v>
+      </c>
+      <c r="G42" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H42">
+        <v>1576</v>
+      </c>
+      <c r="I42">
+        <v>1870</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.22</v>
+      </c>
+      <c r="L42">
+        <v>2.33</v>
+      </c>
+      <c r="M42">
+        <v>1.9399999999999999E-3</v>
+      </c>
+      <c r="N42">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>5</v>
+      </c>
+      <c r="V42" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="W42">
+        <v>33</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <f t="shared" si="9"/>
+        <v>82.5</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="11"/>
+        <v>82.5</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="AD42" s="8">
+        <f t="shared" si="7"/>
+        <v>160.875</v>
+      </c>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="2">
+        <f t="shared" si="8"/>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>500</v>
+      </c>
+      <c r="G43" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H43">
+        <v>1576</v>
+      </c>
+      <c r="I43">
+        <v>1870</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.22</v>
+      </c>
+      <c r="L43">
+        <v>2.33</v>
+      </c>
+      <c r="M43">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="N43">
+        <v>0.04</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>5</v>
+      </c>
+      <c r="V43" s="2">
+        <v>38</v>
+      </c>
+      <c r="W43">
+        <v>18</v>
+      </c>
+      <c r="X43" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AD43" s="8">
+        <f t="shared" si="7"/>
+        <v>78.300000000000011</v>
+      </c>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="2">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H44">
+        <v>1576</v>
+      </c>
+      <c r="I44">
+        <v>1870</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0.22</v>
+      </c>
+      <c r="L44">
+        <v>2.33</v>
+      </c>
+      <c r="M44">
+        <v>1.9399999999999999E-3</v>
+      </c>
+      <c r="N44">
+        <v>0.04</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>10</v>
       </c>
-      <c r="AA40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
+      <c r="V44" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="W44">
+        <v>39</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <f t="shared" si="9"/>
+        <v>108.5</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <f t="shared" si="11"/>
+        <v>108.5</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="AD44" s="8">
+        <f t="shared" si="7"/>
+        <v>204.97500000000002</v>
+      </c>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="AC40" s="9">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H45">
+        <v>1576</v>
+      </c>
+      <c r="I45">
+        <v>1870</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.22</v>
+      </c>
+      <c r="L45">
+        <v>2.33</v>
+      </c>
+      <c r="M45">
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="N45">
+        <v>0.04</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>5</v>
+      </c>
+      <c r="V45" s="2">
+        <v>35</v>
+      </c>
+      <c r="W45">
+        <v>18</v>
+      </c>
+      <c r="X45" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
         <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AC45" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AD45" s="8">
+        <f t="shared" si="7"/>
+        <v>74.25</v>
+      </c>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="2">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H46">
+        <v>1576</v>
+      </c>
+      <c r="I46">
+        <v>1870</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.22</v>
+      </c>
+      <c r="L46">
+        <v>2.33</v>
+      </c>
+      <c r="M46">
+        <v>1.9399999999999999E-3</v>
+      </c>
+      <c r="N46">
+        <v>0.04</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>10</v>
       </c>
-      <c r="AD40" s="8">
+      <c r="V46" s="2">
+        <v>95</v>
+      </c>
+      <c r="W46">
+        <v>35</v>
+      </c>
+      <c r="X46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="Z46" s="2">
         <f t="shared" si="10"/>
-        <v>37.950000000000003</v>
-      </c>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="AD46" s="8">
+        <f t="shared" si="7"/>
+        <v>180.75</v>
+      </c>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="2">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H47">
+        <v>1576</v>
+      </c>
+      <c r="I47">
+        <v>1870</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.22</v>
+      </c>
+      <c r="L47">
+        <v>2.33</v>
+      </c>
+      <c r="M47">
+        <v>9.0000000000000008E-4</v>
+      </c>
+      <c r="N47">
+        <v>0.04</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>5</v>
+      </c>
+      <c r="V47" s="2">
+        <v>27</v>
+      </c>
+      <c r="W47">
+        <v>13</v>
+      </c>
+      <c r="X47" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41">
-        <v>500</v>
-      </c>
-      <c r="G41" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H41">
-        <v>1576</v>
-      </c>
-      <c r="I41">
-        <v>1870</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.22</v>
-      </c>
-      <c r="L41">
-        <v>2.33</v>
-      </c>
-      <c r="M41">
-        <v>5.9000000000000003E-4</v>
-      </c>
-      <c r="N41">
-        <v>0.04</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>5</v>
-      </c>
-      <c r="V41" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="W41">
-        <v>12</v>
-      </c>
-      <c r="X41" s="7" t="str">
+      <c r="AC47" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
+        <v>13</v>
+      </c>
+      <c r="AD47" s="8">
+        <f t="shared" si="7"/>
+        <v>55.95</v>
+      </c>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42">
-        <v>25</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42">
-        <v>500</v>
-      </c>
-      <c r="G42" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H42">
-        <v>1576</v>
-      </c>
-      <c r="I42">
-        <v>1870</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.22</v>
-      </c>
-      <c r="L42">
-        <v>2.33</v>
-      </c>
-      <c r="M42">
-        <v>1.9399999999999999E-3</v>
-      </c>
-      <c r="N42">
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>5</v>
-      </c>
-      <c r="V42" s="2">
-        <v>82.5</v>
-      </c>
-      <c r="W42">
-        <v>33</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="9">
-        <v>25</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>10</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="9">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="AC42" s="9">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AD42" s="8">
-        <f t="shared" si="10"/>
-        <v>48.75</v>
-      </c>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="9">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43">
-        <v>500</v>
-      </c>
-      <c r="G43" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H43">
-        <v>1576</v>
-      </c>
-      <c r="I43">
-        <v>1870</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.22</v>
-      </c>
-      <c r="L43">
-        <v>2.33</v>
-      </c>
-      <c r="M43">
-        <v>9.0000000000000008E-4</v>
-      </c>
-      <c r="N43">
-        <v>0.04</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>5</v>
-      </c>
-      <c r="V43" s="2">
-        <v>38</v>
-      </c>
-      <c r="W43">
-        <v>18</v>
-      </c>
-      <c r="X43" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="9">
-        <v>55</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>23</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="9">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="10"/>
-        <v>108.75</v>
-      </c>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="9">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <v>500</v>
-      </c>
-      <c r="G44" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H44">
-        <v>1576</v>
-      </c>
-      <c r="I44">
-        <v>1870</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.22</v>
-      </c>
-      <c r="L44">
-        <v>2.33</v>
-      </c>
-      <c r="M44">
-        <v>1.9399999999999999E-3</v>
-      </c>
-      <c r="N44">
-        <v>0.04</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>10</v>
-      </c>
-      <c r="V44" s="2">
-        <v>108.5</v>
-      </c>
-      <c r="W44">
-        <v>39</v>
-      </c>
-      <c r="X44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="9">
-        <f t="shared" si="8"/>
-        <v>12.5</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="10"/>
-        <v>34.875</v>
-      </c>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="9">
-        <f t="shared" si="11"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45">
-        <v>500</v>
-      </c>
-      <c r="G45" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H45">
-        <v>1576</v>
-      </c>
-      <c r="I45">
-        <v>1870</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.22</v>
-      </c>
-      <c r="L45">
-        <v>2.33</v>
-      </c>
-      <c r="M45">
-        <v>5.9900000000000003E-4</v>
-      </c>
-      <c r="N45">
-        <v>0.04</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>5</v>
-      </c>
-      <c r="V45" s="2">
-        <v>35</v>
-      </c>
-      <c r="W45">
-        <v>18</v>
-      </c>
-      <c r="X45" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>82.5</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>33</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <f t="shared" si="8"/>
-        <v>82.5</v>
-      </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AD45" s="8">
-        <f t="shared" si="10"/>
-        <v>160.875</v>
-      </c>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="9">
-        <f t="shared" si="11"/>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <v>500</v>
-      </c>
-      <c r="G46" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H46">
-        <v>1576</v>
-      </c>
-      <c r="I46">
-        <v>1870</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.22</v>
-      </c>
-      <c r="L46">
-        <v>2.33</v>
-      </c>
-      <c r="M46">
-        <v>1.9399999999999999E-3</v>
-      </c>
-      <c r="N46">
-        <v>0.04</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>10</v>
-      </c>
-      <c r="V46" s="2">
-        <v>95</v>
-      </c>
-      <c r="W46">
-        <v>35</v>
-      </c>
-      <c r="X46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>38</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>18</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="9">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AD46" s="8">
-        <f t="shared" si="10"/>
-        <v>78.300000000000011</v>
-      </c>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="9">
-        <f t="shared" si="11"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47">
-        <v>500</v>
-      </c>
-      <c r="G47" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H47">
-        <v>1576</v>
-      </c>
-      <c r="I47">
-        <v>1870</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0.22</v>
-      </c>
-      <c r="L47">
-        <v>2.33</v>
-      </c>
-      <c r="M47">
-        <v>9.0000000000000008E-4</v>
-      </c>
-      <c r="N47">
-        <v>0.04</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-      <c r="S47">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>5</v>
-      </c>
-      <c r="V47" s="2">
-        <v>27</v>
-      </c>
-      <c r="W47">
-        <v>13</v>
-      </c>
-      <c r="X47" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="9">
-        <v>108.5</v>
-      </c>
-      <c r="Z47" s="9">
-        <v>39</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="9">
-        <f t="shared" si="8"/>
-        <v>108.5</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
-      <c r="AD47" s="8">
-        <f t="shared" si="10"/>
-        <v>204.97500000000002</v>
-      </c>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="9">
-        <f t="shared" si="11"/>
-        <v>147.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B48" t="s">
@@ -5901,18 +6054,37 @@
       <c r="X48" s="7">
         <v>0</v>
       </c>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="8"/>
+      <c r="Y48" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>0</v>
+      </c>
       <c r="AE48" s="8"/>
-      <c r="AF48" s="9"/>
+      <c r="AF48" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B49" t="s">
@@ -5982,39 +6154,41 @@
         <v>13</v>
       </c>
       <c r="X49" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AC49" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="9">
-        <v>35</v>
-      </c>
-      <c r="Z49" s="9">
-        <v>18</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="9">
+        <v>13</v>
+      </c>
+      <c r="AD49" s="8">
+        <f t="shared" si="7"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="2">
         <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="AC49" s="9">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AD49" s="8">
-        <f t="shared" si="10"/>
-        <v>74.25</v>
-      </c>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="9">
-        <f t="shared" si="11"/>
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B50" t="s">
@@ -6086,36 +6260,38 @@
       <c r="X50" s="7">
         <v>0</v>
       </c>
-      <c r="Y50" s="9">
-        <v>95</v>
-      </c>
-      <c r="Z50" s="9">
-        <v>35</v>
+      <c r="Y50" s="2">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="10"/>
+        <v>34</v>
       </c>
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-      <c r="AB50" s="9">
+      <c r="AB50" s="2">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="AC50" s="2">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="AD50" s="8">
+        <f t="shared" si="7"/>
+        <v>192.75</v>
+      </c>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="2">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="AC50" s="9">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="AD50" s="8">
-        <f t="shared" si="10"/>
-        <v>180.75</v>
-      </c>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="9">
-        <f t="shared" si="11"/>
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B51" t="s">
@@ -6185,39 +6361,41 @@
         <v>15</v>
       </c>
       <c r="X51" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="AC51" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="9">
-        <v>27</v>
-      </c>
-      <c r="Z51" s="9">
-        <v>13</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD51" s="8">
+        <f t="shared" si="7"/>
+        <v>65.7</v>
+      </c>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="2">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AD51" s="8">
-        <f t="shared" si="10"/>
-        <v>55.95</v>
-      </c>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="9">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B52" t="s">
@@ -6289,32 +6467,38 @@
       <c r="X52" s="7">
         <v>0</v>
       </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
+      <c r="Y52" s="2">
+        <f t="shared" si="9"/>
+        <v>106.5</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="9">
+      <c r="AB52" s="2">
+        <f t="shared" si="11"/>
+        <v>106.5</v>
+      </c>
+      <c r="AC52" s="2">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="AD52" s="8">
+        <f t="shared" si="7"/>
+        <v>200.77500000000001</v>
+      </c>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B53" t="s">
@@ -6384,39 +6568,41 @@
         <v>17</v>
       </c>
       <c r="X53" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="AC53" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="9">
-        <v>36</v>
-      </c>
-      <c r="Z53" s="9">
-        <v>13</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
+        <v>17</v>
+      </c>
+      <c r="AD53" s="8">
+        <f t="shared" si="7"/>
+        <v>76.800000000000011</v>
+      </c>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="2">
         <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AD53" s="8">
-        <f t="shared" si="10"/>
-        <v>68.099999999999994</v>
-      </c>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="9">
-        <f t="shared" si="11"/>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B54" t="s">
@@ -6488,36 +6674,38 @@
       <c r="X54" s="7">
         <v>0</v>
       </c>
-      <c r="Y54" s="9">
-        <v>105</v>
-      </c>
-      <c r="Z54" s="9">
-        <v>34</v>
+      <c r="Y54" s="2">
+        <f t="shared" si="9"/>
+        <v>118.5</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="10"/>
+        <v>42.5</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-      <c r="AB54" s="9">
+      <c r="AB54" s="2">
+        <f t="shared" si="11"/>
+        <v>118.5</v>
+      </c>
+      <c r="AC54" s="2">
+        <f t="shared" si="12"/>
+        <v>42.5</v>
+      </c>
+      <c r="AD54" s="8">
+        <f t="shared" si="7"/>
+        <v>223.72500000000002</v>
+      </c>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="2">
         <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-      <c r="AC54" s="9">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-      <c r="AD54" s="8">
-        <f t="shared" si="10"/>
-        <v>192.75</v>
-      </c>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="9">
-        <f t="shared" si="11"/>
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B55" t="s">
@@ -6587,39 +6775,41 @@
         <v>18</v>
       </c>
       <c r="X55" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Z55" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="AC55" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="9">
-        <v>32</v>
-      </c>
-      <c r="Z55" s="9">
-        <v>15</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD55" s="8">
+        <f t="shared" si="7"/>
+        <v>82.35</v>
+      </c>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="2">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AC55" s="9">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AD55" s="8">
-        <f t="shared" si="10"/>
-        <v>65.7</v>
-      </c>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="9">
-        <f t="shared" si="11"/>
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B56" t="s">
@@ -6691,36 +6881,38 @@
       <c r="X56" s="7">
         <v>0</v>
       </c>
-      <c r="Y56" s="9">
-        <v>106.5</v>
-      </c>
-      <c r="Z56" s="9">
-        <v>38</v>
+      <c r="Y56" s="2">
+        <f t="shared" si="9"/>
+        <v>118.5</v>
+      </c>
+      <c r="Z56" s="2">
+        <f t="shared" si="10"/>
+        <v>42.5</v>
       </c>
       <c r="AA56" s="3">
         <v>0</v>
       </c>
-      <c r="AB56" s="9">
+      <c r="AB56" s="2">
+        <f t="shared" si="11"/>
+        <v>118.5</v>
+      </c>
+      <c r="AC56" s="2">
+        <f t="shared" si="12"/>
+        <v>42.5</v>
+      </c>
+      <c r="AD56" s="8">
+        <f t="shared" si="7"/>
+        <v>223.72500000000002</v>
+      </c>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="2">
         <f t="shared" si="8"/>
-        <v>106.5</v>
-      </c>
-      <c r="AC56" s="9">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="AD56" s="8">
-        <f t="shared" si="10"/>
-        <v>200.77500000000001</v>
-      </c>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="9">
-        <f t="shared" si="11"/>
-        <v>144.5</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B57" t="s">
@@ -6790,39 +6982,41 @@
         <v>18</v>
       </c>
       <c r="X57" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Z57" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="AC57" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="9">
-        <v>38</v>
-      </c>
-      <c r="Z57" s="9">
-        <v>17</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD57" s="8">
+        <f t="shared" si="7"/>
+        <v>82.35</v>
+      </c>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="2">
         <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="AC57" s="9">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AD57" s="8">
-        <f t="shared" si="10"/>
-        <v>76.800000000000011</v>
-      </c>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="9">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B58" t="s">
@@ -6894,36 +7088,38 @@
       <c r="X58" s="7">
         <v>0</v>
       </c>
-      <c r="Y58" s="9">
+      <c r="Y58" s="2">
+        <f t="shared" si="9"/>
         <v>118.5</v>
       </c>
-      <c r="Z58" s="9">
+      <c r="Z58" s="2">
+        <f t="shared" si="10"/>
         <v>42.5</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="9">
+      <c r="AB58" s="2">
+        <f t="shared" si="11"/>
+        <v>118.5</v>
+      </c>
+      <c r="AC58" s="2">
+        <f t="shared" si="12"/>
+        <v>42.5</v>
+      </c>
+      <c r="AD58" s="8">
+        <f t="shared" si="7"/>
+        <v>223.72500000000002</v>
+      </c>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="2">
         <f t="shared" si="8"/>
-        <v>118.5</v>
-      </c>
-      <c r="AC58" s="9">
-        <f t="shared" si="9"/>
-        <v>42.5</v>
-      </c>
-      <c r="AD58" s="8">
-        <f t="shared" si="10"/>
-        <v>223.72500000000002</v>
-      </c>
-      <c r="AE58" s="8"/>
-      <c r="AF58" s="9">
-        <f t="shared" si="11"/>
         <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B59" t="s">
@@ -6993,39 +7189,41 @@
         <v>18</v>
       </c>
       <c r="X59" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Z59" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="AC59" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="9">
-        <v>41</v>
-      </c>
-      <c r="Z59" s="9">
-        <v>18</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD59" s="8">
+        <f t="shared" si="7"/>
+        <v>82.35</v>
+      </c>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="2">
         <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="AC59" s="9">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="AD59" s="8">
-        <f t="shared" si="10"/>
-        <v>82.35</v>
-      </c>
-      <c r="AE59" s="8"/>
-      <c r="AF59" s="9">
-        <f t="shared" si="11"/>
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B60" t="s">
@@ -7097,30 +7295,32 @@
       <c r="X60" s="7">
         <v>0</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y60" s="2">
+        <f t="shared" si="9"/>
         <v>118.5</v>
       </c>
-      <c r="Z60" s="9">
+      <c r="Z60" s="2">
+        <f t="shared" si="10"/>
         <v>42.5</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-      <c r="AB60" s="9">
+      <c r="AB60" s="2">
+        <f t="shared" si="11"/>
+        <v>118.5</v>
+      </c>
+      <c r="AC60" s="2">
+        <f t="shared" si="12"/>
+        <v>42.5</v>
+      </c>
+      <c r="AD60" s="8">
+        <f t="shared" si="7"/>
+        <v>223.72500000000002</v>
+      </c>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="2">
         <f t="shared" si="8"/>
-        <v>118.5</v>
-      </c>
-      <c r="AC60" s="9">
-        <f t="shared" si="9"/>
-        <v>42.5</v>
-      </c>
-      <c r="AD60" s="8">
-        <f t="shared" si="10"/>
-        <v>223.72500000000002</v>
-      </c>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="9">
-        <f t="shared" si="11"/>
         <v>161</v>
       </c>
     </row>

--- a/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BB20A420-F846-45C2-97F3-4DF1545A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB599D73-85B2-480E-B28D-A00145E50CA4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B533A61-6C86-4F70-9EEA-F0B6DBB6AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +538,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -700,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -712,6 +718,8 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,10 +792,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,14 +1113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3:Z60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1313,7 +1317,7 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A60" si="3">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
@@ -1375,8 +1379,9 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>7</v>
+      <c r="U3" s="11">
+        <f>7+1</f>
+        <v>8</v>
       </c>
       <c r="V3" s="2">
         <v>26</v>
@@ -1400,11 +1405,11 @@
         <v>0.5</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB60" si="5">Y3*(1-AA3)</f>
+        <f t="shared" ref="AB3" si="5">Y3*(1-AA3)</f>
         <v>13</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC60" si="6">Y3*AA3 + Z3</f>
+        <f t="shared" ref="AC3" si="6">Y3*AA3 + Z3</f>
         <v>23</v>
       </c>
       <c r="AD3" s="8">
@@ -1419,7 +1424,7 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1466,14 +1471,15 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>6.1578924137931036E-4</v>
+      <c r="P4" s="11">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q4">
         <v>0.04</v>
       </c>
-      <c r="R4">
-        <v>1</v>
+      <c r="R4" s="11">
+        <v>4</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1524,7 +1530,7 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1586,8 +1592,9 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>15</v>
+      <c r="U5" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V5" s="2">
         <v>37</v>
@@ -1630,7 +1637,7 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1677,14 +1684,15 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6">
-        <v>6.1578924137931036E-4</v>
+      <c r="P6" s="11">
+        <f>2.011*0.0001</f>
+        <v>2.0110000000000001E-4</v>
       </c>
       <c r="Q6">
         <v>0.04</v>
       </c>
-      <c r="R6">
-        <v>1</v>
+      <c r="R6" s="11">
+        <v>6</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1735,7 +1743,7 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1797,8 +1805,9 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>15</v>
+      <c r="U7" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V7" s="2">
         <v>37</v>
@@ -1812,36 +1821,36 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>39.975000000000001</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18.074999999999999</v>
       </c>
       <c r="AA7" s="3">
         <v>0.5</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="11"/>
-        <v>18.5</v>
+        <v>19.987500000000001</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="12"/>
-        <v>35.5</v>
+        <v>38.0625</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="7"/>
-        <v>75.45</v>
+        <v>81.078749999999999</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>58.05</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1888,14 +1897,15 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>9.2368386206896549E-4</v>
+      <c r="P8" s="11">
+        <f>3.142*0.0001</f>
+        <v>3.1419999999999999E-4</v>
       </c>
       <c r="Q8">
         <v>0.04</v>
       </c>
-      <c r="R8">
-        <v>1</v>
+      <c r="R8" s="11">
+        <v>6</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1912,41 +1922,41 @@
       <c r="W8" s="2">
         <v>43</v>
       </c>
-      <c r="X8" s="7">
-        <v>0</v>
+      <c r="X8" s="12">
+        <v>-0.05</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="9"/>
-        <v>119</v>
+        <v>113.05</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>40.85</v>
       </c>
       <c r="AA8" s="3">
         <v>0.5</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="11"/>
-        <v>59.5</v>
+        <v>56.524999999999999</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="12"/>
-        <v>102.5</v>
+        <v>97.375</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="7"/>
-        <v>225.15</v>
+        <v>213.89250000000001</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="2">
         <f t="shared" si="8"/>
-        <v>162</v>
+        <v>153.9</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2008,8 +2018,9 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>15</v>
+      <c r="U9" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V9" s="2">
         <v>41</v>
@@ -2023,35 +2034,35 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>40.912500000000001</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>18.175000000000001</v>
       </c>
       <c r="AA9" s="3">
         <v>0.5</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="11"/>
-        <v>20.5</v>
+        <v>20.456250000000001</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="12"/>
-        <v>38.5</v>
+        <v>38.631250000000001</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="7"/>
-        <v>82.35</v>
+        <v>82.494375000000005</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="2">
         <f t="shared" si="8"/>
-        <v>59</v>
+        <v>59.087500000000006</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2098,14 +2109,15 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>9.2368386206896549E-4</v>
+      <c r="P10" s="11">
+        <f>3.142*0.0001</f>
+        <v>3.1419999999999999E-4</v>
       </c>
       <c r="Q10">
         <v>0.04</v>
       </c>
-      <c r="R10">
-        <v>1</v>
+      <c r="R10" s="11">
+        <v>6</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2122,41 +2134,41 @@
       <c r="W10" s="2">
         <v>36</v>
       </c>
-      <c r="X10" s="7">
-        <v>0</v>
+      <c r="X10" s="12">
+        <v>0.05</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="9"/>
-        <v>122.5</v>
+        <v>128.625</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AA10" s="3">
         <v>0.5</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="11"/>
-        <v>61.25</v>
+        <v>64.3125</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="12"/>
-        <v>97.25</v>
+        <v>102.1125</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="7"/>
-        <v>219.375</v>
+        <v>230.34375</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="2">
         <f t="shared" si="8"/>
-        <v>158.5</v>
+        <v>166.42500000000001</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2218,8 +2230,9 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>15</v>
+      <c r="U11" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V11" s="2">
         <v>41</v>
@@ -2233,35 +2246,35 @@
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>34.712499999999999</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>10.1625</v>
       </c>
       <c r="AA11" s="3">
         <v>0.5</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="11"/>
-        <v>20.5</v>
+        <v>17.356249999999999</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="12"/>
-        <v>32.5</v>
+        <v>27.518749999999997</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="7"/>
-        <v>73.349999999999994</v>
+        <v>62.105624999999996</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="2">
         <f t="shared" si="8"/>
-        <v>53</v>
+        <v>44.875</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2308,14 +2321,15 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>9.2368386206896549E-4</v>
+      <c r="P12" s="11">
+        <f>3.142*0.0001</f>
+        <v>3.1419999999999999E-4</v>
       </c>
       <c r="Q12">
         <v>0.04</v>
       </c>
-      <c r="R12">
-        <v>1</v>
+      <c r="R12" s="11">
+        <v>6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2332,41 +2346,41 @@
       <c r="W12">
         <v>37.5</v>
       </c>
-      <c r="X12" s="7">
-        <v>0</v>
+      <c r="X12" s="12">
+        <v>0.05</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="9"/>
-        <v>129</v>
+        <v>135.44999999999999</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="10"/>
-        <v>37.5</v>
+        <v>39.375</v>
       </c>
       <c r="AA12" s="3">
         <v>0.5</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="11"/>
-        <v>64.5</v>
+        <v>67.724999999999994</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="12"/>
-        <v>102</v>
+        <v>107.1</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="7"/>
-        <v>230.4</v>
+        <v>241.92</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="2">
         <f t="shared" si="8"/>
-        <v>166.5</v>
+        <v>174.82499999999999</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2428,8 +2442,9 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>15</v>
+      <c r="U13" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V13" s="2">
         <v>42</v>
@@ -2443,36 +2458,36 @@
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="9"/>
-        <v>42</v>
+        <v>35.9</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16.05</v>
       </c>
       <c r="AA13" s="3">
         <v>0.5</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>17.95</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="7"/>
-        <v>83.7</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="2">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>51.95</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2519,14 +2534,15 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>1.206E-3</v>
+      <c r="P14" s="11">
+        <f>2.011*0.0001</f>
+        <v>2.0110000000000001E-4</v>
       </c>
       <c r="Q14">
         <v>0.04</v>
       </c>
-      <c r="R14">
-        <v>1</v>
+      <c r="R14" s="11">
+        <v>6</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2543,40 +2559,40 @@
       <c r="W14" s="2">
         <v>40.5</v>
       </c>
-      <c r="X14" s="7">
-        <v>0</v>
+      <c r="X14" s="12">
+        <v>0.05</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>120.75</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="10"/>
-        <v>40.5</v>
+        <v>42.524999999999999</v>
       </c>
       <c r="AA14" s="3">
         <v>0.5</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="11"/>
-        <v>57.5</v>
+        <v>60.375</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="12"/>
-        <v>98</v>
+        <v>102.9</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>226.8</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="2">
         <f t="shared" si="8"/>
-        <v>155.5</v>
+        <v>163.27500000000001</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2638,8 +2654,9 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>10</v>
+      <c r="U15" s="11">
+        <f>10+2</f>
+        <v>12</v>
       </c>
       <c r="V15" s="2">
         <v>33.6</v>
@@ -2653,36 +2670,36 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="9"/>
-        <v>33.6</v>
+        <v>39.162500000000001</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="AA15" s="3">
         <v>0.5</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="11"/>
-        <v>16.8</v>
+        <v>19.581250000000001</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="12"/>
-        <v>31.8</v>
+        <v>36.381250000000001</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="7"/>
-        <v>67.860000000000014</v>
+        <v>78.069375000000008</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="2">
         <f t="shared" si="8"/>
-        <v>48.6</v>
+        <v>55.962500000000006</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2729,14 +2746,15 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16">
-        <v>3.0789462068965518E-4</v>
+      <c r="P16" s="11">
+        <f>1.539*0.0001</f>
+        <v>1.539E-4</v>
       </c>
       <c r="Q16">
         <v>0.04</v>
       </c>
-      <c r="R16">
-        <v>1</v>
+      <c r="R16" s="11">
+        <v>4</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2753,41 +2771,41 @@
       <c r="W16" s="2">
         <v>37.5</v>
       </c>
-      <c r="X16" s="7">
-        <v>0</v>
+      <c r="X16" s="12">
+        <v>-0.15</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="9"/>
-        <v>112.5</v>
+        <v>95.625</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="10"/>
-        <v>37.5</v>
+        <v>31.875</v>
       </c>
       <c r="AA16" s="3">
         <v>0.5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="11"/>
-        <v>56.25</v>
+        <v>47.8125</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="12"/>
-        <v>93.75</v>
+        <v>79.6875</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="7"/>
-        <v>208.125</v>
+        <v>176.90625</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="2">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>127.5</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2849,8 +2867,9 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>5</v>
+      <c r="U17" s="11">
+        <f>5+3</f>
+        <v>8</v>
       </c>
       <c r="V17" s="2">
         <v>44</v>
@@ -2864,36 +2883,36 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>52.4375</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>18.8125</v>
       </c>
       <c r="AA17" s="3">
         <v>0.5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>26.21875</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>45.03125</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="7"/>
-        <v>83.4</v>
+        <v>99.009375000000006</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="2">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>71.25</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2990,7 +3009,7 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3052,8 +3071,9 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>5</v>
+      <c r="U19" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V19" s="2">
         <v>40</v>
@@ -3096,7 +3116,7 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3200,7 +3220,7 @@
       </c>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3262,8 +3282,9 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>5</v>
+      <c r="U21" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V21" s="2">
         <v>8.5</v>
@@ -3277,35 +3298,35 @@
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="9"/>
-        <v>8.5</v>
+        <v>11.335000000000001</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13.154999999999999</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="11"/>
-        <v>8.5</v>
+        <v>11.335000000000001</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>13.154999999999999</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="7"/>
-        <v>29.475000000000001</v>
+        <v>35.034750000000003</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="2">
         <f t="shared" si="8"/>
-        <v>20.5</v>
+        <v>24.490000000000002</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3376,40 +3397,40 @@
       <c r="W22">
         <v>33</v>
       </c>
-      <c r="X22" s="7">
-        <v>0</v>
+      <c r="X22" s="12">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>75.33</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>30.69</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>75.33</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>30.69</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="7"/>
-        <v>158.85000000000002</v>
+        <v>147.73050000000001</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="2">
         <f t="shared" si="8"/>
-        <v>114</v>
+        <v>106.02</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3471,8 +3492,9 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>5</v>
+      <c r="U23" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V23" s="2">
         <v>40</v>
@@ -3486,35 +3508,35 @@
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>46.86</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>21.59</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>46.86</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>21.59</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="7"/>
-        <v>82.5</v>
+        <v>95.646000000000001</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="2">
         <f t="shared" si="8"/>
-        <v>59</v>
+        <v>68.45</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3585,40 +3607,40 @@
       <c r="W24">
         <v>41</v>
       </c>
-      <c r="X24" s="7">
-        <v>0</v>
+      <c r="X24" s="12">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>106.95</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="11"/>
-        <v>115</v>
+        <v>106.95</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="12"/>
-        <v>41</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="7"/>
-        <v>216.75</v>
+        <v>201.57750000000004</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="2">
         <f t="shared" si="8"/>
-        <v>156</v>
+        <v>145.08000000000001</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3680,8 +3702,9 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>5</v>
+      <c r="U25" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V25" s="2">
         <v>36</v>
@@ -3695,35 +3718,35 @@
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>40.024999999999999</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>40.024999999999999</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>19.434999999999999</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="7"/>
-        <v>75.599999999999994</v>
+        <v>83.186250000000001</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>59.459999999999994</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3827,7 +3850,7 @@
       </c>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3889,8 +3912,9 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>5</v>
+      <c r="U27" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V27" s="2">
         <v>31</v>
@@ -3932,7 +3956,7 @@
       </c>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -4028,7 +4052,7 @@
       </c>
       <c r="AP28" s="2"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4132,7 +4156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4235,7 +4259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4339,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4442,7 +4466,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4546,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4649,7 +4673,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4753,7 +4777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4856,7 +4880,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4960,7 +4984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5055,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5117,8 +5141,9 @@
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>5</v>
+      <c r="U39" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V39" s="2">
         <v>25</v>
@@ -5159,7 +5184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5262,7 +5287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5324,8 +5349,9 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>5</v>
+      <c r="U41" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V41" s="2">
         <v>12.5</v>
@@ -5339,34 +5365,34 @@
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>16.625</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13.65</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="11"/>
-        <v>12.5</v>
+        <v>16.625</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>13.65</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="7"/>
-        <v>34.875</v>
+        <v>42.918750000000003</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="2">
         <f t="shared" si="8"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+        <v>30.274999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5428,8 +5454,9 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>5</v>
+      <c r="U42" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V42" s="2">
         <v>82.5</v>
@@ -5437,39 +5464,39 @@
       <c r="W42">
         <v>33</v>
       </c>
-      <c r="X42" s="7">
-        <v>0</v>
+      <c r="X42" s="12">
+        <v>-0.1</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="9"/>
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>29.7</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="11"/>
-        <v>82.5</v>
+        <v>74.25</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>29.7</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="7"/>
-        <v>160.875</v>
+        <v>144.78750000000002</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="2">
         <f t="shared" si="8"/>
-        <v>115.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <v>103.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5531,8 +5558,9 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>5</v>
+      <c r="U43" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V43" s="2">
         <v>38</v>
@@ -5546,34 +5574,34 @@
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>42.125</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>42.125</v>
       </c>
       <c r="AC43" s="2">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="7"/>
-        <v>78.300000000000011</v>
+        <v>86.34375</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="2">
         <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+        <v>61.774999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5635,8 +5663,9 @@
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44">
-        <v>10</v>
+      <c r="U44" s="11">
+        <f>10-2</f>
+        <v>8</v>
       </c>
       <c r="V44" s="2">
         <v>108.5</v>
@@ -5676,7 +5705,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5738,8 +5767,9 @@
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>5</v>
+      <c r="U45" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V45" s="2">
         <v>35</v>
@@ -5780,7 +5810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5842,8 +5872,9 @@
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46">
-        <v>10</v>
+      <c r="U46" s="11">
+        <f>10-2</f>
+        <v>8</v>
       </c>
       <c r="V46" s="2">
         <v>95</v>
@@ -5883,7 +5914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5945,8 +5976,9 @@
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47">
-        <v>5</v>
+      <c r="U47" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V47" s="2">
         <v>27</v>
@@ -5987,7 +6019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -6082,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6144,8 +6176,9 @@
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49">
-        <v>15</v>
+      <c r="U49" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V49" s="2">
         <v>36</v>
@@ -6159,34 +6192,34 @@
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>30.75</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="7"/>
-        <v>68.099999999999994</v>
+        <v>58.462500000000006</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="2">
         <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+        <v>42.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6248,8 +6281,9 @@
       <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50">
-        <v>5</v>
+      <c r="U50" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V50" s="2">
         <v>105</v>
@@ -6257,39 +6291,39 @@
       <c r="W50">
         <v>34</v>
       </c>
-      <c r="X50" s="7">
-        <v>0</v>
+      <c r="X50" s="12">
+        <v>0.1</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>115.5</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>37.4</v>
       </c>
       <c r="AA50" s="3">
         <v>0</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>115.5</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>37.4</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="7"/>
-        <v>192.75</v>
+        <v>212.02500000000001</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="2">
         <f t="shared" si="8"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6351,8 +6385,9 @@
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51">
-        <v>15</v>
+      <c r="U51" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V51" s="2">
         <v>32</v>
@@ -6366,34 +6401,34 @@
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="9"/>
-        <v>32</v>
+        <v>21.425000000000001</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="AA51" s="3">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>21.425000000000001</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="7"/>
-        <v>65.7</v>
+        <v>46.02375</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="2">
         <f t="shared" si="8"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>32.825000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6455,8 +6490,9 @@
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52">
-        <v>5</v>
+      <c r="U52" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V52" s="2">
         <v>106.5</v>
@@ -6464,39 +6500,39 @@
       <c r="W52">
         <v>38</v>
       </c>
-      <c r="X52" s="7">
-        <v>0</v>
+      <c r="X52" s="12">
+        <v>0.1</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="9"/>
-        <v>106.5</v>
+        <v>117.15</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>41.8</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="11"/>
-        <v>106.5</v>
+        <v>117.15</v>
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>41.8</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="7"/>
-        <v>200.77500000000001</v>
+        <v>220.85250000000002</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="2">
         <f t="shared" si="8"/>
-        <v>144.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+        <v>158.94999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6558,8 +6594,9 @@
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53">
-        <v>15</v>
+      <c r="U53" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V53" s="2">
         <v>38</v>
@@ -6573,34 +6610,34 @@
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>32.674999999999997</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="AA53" s="3">
         <v>0</v>
       </c>
       <c r="AB53" s="2">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>32.674999999999997</v>
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>15.1</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>66.76124999999999</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="2">
         <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+        <v>47.774999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6662,8 +6699,9 @@
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54">
-        <v>10</v>
+      <c r="U54" s="11">
+        <f>10+2</f>
+        <v>12</v>
       </c>
       <c r="V54" s="2">
         <v>118.5</v>
@@ -6703,7 +6741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6765,8 +6803,9 @@
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55">
-        <v>15</v>
+      <c r="U55" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V55" s="2">
         <v>41</v>
@@ -6807,7 +6846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6869,8 +6908,9 @@
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56">
-        <v>10</v>
+      <c r="U56" s="11">
+        <f>10+2</f>
+        <v>12</v>
       </c>
       <c r="V56" s="2">
         <v>118.5</v>
@@ -6910,7 +6950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -6972,8 +7012,9 @@
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57">
-        <v>15</v>
+      <c r="U57" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V57" s="2">
         <v>41</v>
@@ -6987,34 +7028,34 @@
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="7"/>
-        <v>82.35</v>
+        <v>71.163750000000007</v>
       </c>
       <c r="AE57" s="8"/>
       <c r="AF57" s="2">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+        <v>50.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7076,8 +7117,9 @@
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58">
-        <v>5</v>
+      <c r="U58" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V58" s="2">
         <v>118.5</v>
@@ -7085,39 +7127,39 @@
       <c r="W58">
         <v>42.5</v>
       </c>
-      <c r="X58" s="7">
-        <v>0</v>
+      <c r="X58" s="12">
+        <v>0.1</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" si="9"/>
-        <v>118.5</v>
+        <v>130.35</v>
       </c>
       <c r="Z58" s="2">
         <f t="shared" si="10"/>
-        <v>42.5</v>
+        <v>46.75</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="11"/>
-        <v>118.5</v>
+        <v>130.35</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="12"/>
-        <v>42.5</v>
+        <v>46.75</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="7"/>
-        <v>223.72500000000002</v>
+        <v>246.0975</v>
       </c>
       <c r="AE58" s="8"/>
       <c r="AF58" s="2">
         <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+        <v>177.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7179,8 +7221,9 @@
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59">
-        <v>15</v>
+      <c r="U59" s="11">
+        <f>15-1</f>
+        <v>14</v>
       </c>
       <c r="V59" s="2">
         <v>41</v>
@@ -7194,34 +7237,34 @@
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>35.075000000000003</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>15.875</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="7"/>
-        <v>82.35</v>
+        <v>71.163750000000007</v>
       </c>
       <c r="AE59" s="8"/>
       <c r="AF59" s="2">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+        <v>50.95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7324,7 +7367,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X61" s="7"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -7335,7 +7378,7 @@
       <c r="AE61" s="8"/>
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X62" s="7"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -7346,7 +7389,7 @@
       <c r="AE62" s="8"/>
       <c r="AF62" s="9"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X63" s="7"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -7357,7 +7400,7 @@
       <c r="AE63" s="8"/>
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="X64" s="7"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -7368,7 +7411,7 @@
       <c r="AE64" s="8"/>
       <c r="AF64" s="9"/>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="7"/>
@@ -7381,7 +7424,7 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="7"/>
@@ -7394,7 +7437,7 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="7"/>
@@ -7407,7 +7450,7 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G68" s="1"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
@@ -7420,7 +7463,7 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="7"/>
@@ -7433,7 +7476,7 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="7"/>
@@ -7446,7 +7489,7 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G71" s="1"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
@@ -7459,7 +7502,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G72" s="1"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
@@ -7472,7 +7515,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -7485,7 +7528,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="7"/>
@@ -7498,7 +7541,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="7"/>
@@ -7511,7 +7554,7 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="7"/>
@@ -7523,7 +7566,7 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -7535,7 +7578,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -7547,7 +7590,7 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X79" s="7"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -7557,7 +7600,7 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="7:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AB80" s="9"/>

--- a/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B533A61-6C86-4F70-9EEA-F0B6DBB6AB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C4077-5557-41E6-A1FA-D407939C2C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="55">
   <si>
     <t>fck</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>File B - 0</t>
+  </si>
+  <si>
+    <t>File B - 5 + Chapiteau</t>
   </si>
 </sst>
 </file>
@@ -766,14 +769,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1111,14 +1107,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AQ80"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP52" sqref="AP52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -6192,31 +6191,31 @@
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="9"/>
-        <v>30.75</v>
+        <v>28.65</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="10"/>
-        <v>11.3</v>
+        <v>10.62</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
       <c r="AB49" s="2">
         <f t="shared" si="11"/>
-        <v>30.75</v>
+        <v>28.65</v>
       </c>
       <c r="AC49" s="2">
         <f t="shared" si="12"/>
-        <v>11.3</v>
+        <v>10.62</v>
       </c>
       <c r="AD49" s="8">
         <f t="shared" si="7"/>
-        <v>58.462500000000006</v>
+        <v>54.607500000000002</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="2">
         <f t="shared" si="8"/>
-        <v>42.05</v>
+        <v>39.269999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
@@ -6292,35 +6291,35 @@
         <v>34</v>
       </c>
       <c r="X50" s="12">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="9"/>
-        <v>115.5</v>
+        <v>119.7</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="10"/>
-        <v>37.4</v>
+        <v>38.76</v>
       </c>
       <c r="AA50" s="3">
         <v>0</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="11"/>
-        <v>115.5</v>
+        <v>119.7</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="12"/>
-        <v>37.4</v>
+        <v>38.76</v>
       </c>
       <c r="AD50" s="8">
         <f t="shared" si="7"/>
-        <v>212.02500000000001</v>
+        <v>219.73500000000001</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="2">
         <f t="shared" si="8"/>
-        <v>152.9</v>
+        <v>158.46</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
@@ -6401,31 +6400,31 @@
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="9"/>
-        <v>21.425000000000001</v>
+        <v>14</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="10"/>
-        <v>11.399999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="AA51" s="3">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
         <f t="shared" si="11"/>
-        <v>21.425000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC51" s="2">
         <f t="shared" si="12"/>
-        <v>11.399999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="AD51" s="8">
         <f t="shared" si="7"/>
-        <v>46.02375</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="2">
         <f t="shared" si="8"/>
-        <v>32.825000000000003</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
@@ -6501,35 +6500,35 @@
         <v>38</v>
       </c>
       <c r="X52" s="12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="9"/>
-        <v>117.15</v>
+        <v>127.8</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="10"/>
-        <v>41.8</v>
+        <v>45.6</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
       <c r="AB52" s="2">
         <f t="shared" si="11"/>
-        <v>117.15</v>
+        <v>127.8</v>
       </c>
       <c r="AC52" s="2">
         <f t="shared" si="12"/>
-        <v>41.8</v>
+        <v>45.6</v>
       </c>
       <c r="AD52" s="8">
         <f t="shared" si="7"/>
-        <v>220.85250000000002</v>
+        <v>240.93</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="2">
         <f t="shared" si="8"/>
-        <v>158.94999999999999</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
@@ -6610,31 +6609,31 @@
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="9"/>
-        <v>32.674999999999997</v>
+        <v>27.35</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="10"/>
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="AA53" s="3">
         <v>0</v>
       </c>
       <c r="AB53" s="2">
         <f t="shared" si="11"/>
-        <v>32.674999999999997</v>
+        <v>27.35</v>
       </c>
       <c r="AC53" s="2">
         <f t="shared" si="12"/>
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="AD53" s="8">
         <f t="shared" si="7"/>
-        <v>66.76124999999999</v>
+        <v>56.722500000000004</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="2">
         <f t="shared" si="8"/>
-        <v>47.774999999999999</v>
+        <v>40.549999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
@@ -7032,7 +7031,7 @@
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="10"/>
-        <v>15.875</v>
+        <v>16.024999999999999</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
@@ -7043,16 +7042,16 @@
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="12"/>
-        <v>15.875</v>
+        <v>16.024999999999999</v>
       </c>
       <c r="AD57" s="8">
         <f t="shared" si="7"/>
-        <v>71.163750000000007</v>
+        <v>71.388750000000002</v>
       </c>
       <c r="AE57" s="8"/>
       <c r="AF57" s="2">
         <f t="shared" si="8"/>
-        <v>50.95</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
@@ -7125,7 +7124,7 @@
         <v>118.5</v>
       </c>
       <c r="W58">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="X58" s="12">
         <v>0.1</v>
@@ -7136,7 +7135,7 @@
       </c>
       <c r="Z58" s="2">
         <f t="shared" si="10"/>
-        <v>46.75</v>
+        <v>43.45</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -7147,16 +7146,16 @@
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="12"/>
-        <v>46.75</v>
+        <v>43.45</v>
       </c>
       <c r="AD58" s="8">
         <f t="shared" si="7"/>
-        <v>246.0975</v>
+        <v>241.14750000000001</v>
       </c>
       <c r="AE58" s="8"/>
       <c r="AF58" s="2">
         <f t="shared" si="8"/>
-        <v>177.1</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
@@ -7226,10 +7225,10 @@
         <v>14</v>
       </c>
       <c r="V59" s="2">
-        <v>41</v>
+        <v>32.9</v>
       </c>
       <c r="W59">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X59" s="7" t="str">
         <f t="shared" si="13"/>
@@ -7237,31 +7236,31 @@
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="9"/>
-        <v>35.075000000000003</v>
+        <v>26.974999999999998</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="10"/>
-        <v>15.875</v>
+        <v>11.025</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="11"/>
-        <v>35.075000000000003</v>
+        <v>26.974999999999998</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="12"/>
-        <v>15.875</v>
+        <v>11.025</v>
       </c>
       <c r="AD59" s="8">
         <f t="shared" si="7"/>
-        <v>71.163750000000007</v>
+        <v>52.953749999999999</v>
       </c>
       <c r="AE59" s="8"/>
       <c r="AF59" s="2">
         <f t="shared" si="8"/>
-        <v>50.95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
@@ -7330,243 +7329,1600 @@
         <v>1</v>
       </c>
       <c r="V60" s="2">
-        <v>118.5</v>
+        <v>55</v>
       </c>
       <c r="W60">
-        <v>42.5</v>
+        <v>21</v>
       </c>
       <c r="X60" s="7">
         <v>0</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="9"/>
-        <v>118.5</v>
+        <v>55</v>
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="10"/>
-        <v>42.5</v>
+        <v>21</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="11"/>
-        <v>118.5</v>
+        <v>55</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="12"/>
-        <v>42.5</v>
+        <v>21</v>
       </c>
       <c r="AD60" s="8">
         <f t="shared" si="7"/>
-        <v>223.72500000000002</v>
+        <v>105.75</v>
       </c>
       <c r="AE60" s="8"/>
       <c r="AF60" s="2">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="X61" s="7"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="8"/>
+      <c r="A61">
+        <f t="shared" ref="A61:A74" si="14">IF(B61=B60,A60,A60+1)</f>
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="4">
+        <v>25</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="4">
+        <v>500</v>
+      </c>
+      <c r="G61" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L61" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O61" s="4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0</v>
+      </c>
+      <c r="R61" s="4">
+        <v>1</v>
+      </c>
+      <c r="S61" s="4">
+        <v>0</v>
+      </c>
+      <c r="T61" s="4">
+        <v>0</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0</v>
+      </c>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),V61+X61*V61,IF(A60&lt;A61,V61-X63*V63/2,IF(A61&lt;A63,V61-(X60*V60)/2,V61-(X63*V63+X60*V60)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C61)),W61+X61*W61,IF(A60&lt;A61,W61-X63*W63/2,IF(A61&lt;A63,W61-(X60*W60)/2,W61-(X63*W63+X60*W60)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" ref="AB61:AB74" si="15">Y61*(1-AA61)</f>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" ref="AC61:AC74" si="16">Y61*AA61 + Z61</f>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="8">
+        <v>0</v>
+      </c>
       <c r="AE61" s="8"/>
-      <c r="AF61" s="9"/>
+      <c r="AF61" s="2">
+        <f t="shared" ref="AF61:AF74" si="17">AB61+AC61</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="X62" s="7"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="8"/>
+      <c r="A62">
+        <f t="shared" ref="A62" si="18">IF(B62=B61,A61,A61+1)</f>
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="4">
+        <v>25</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4">
+        <v>500</v>
+      </c>
+      <c r="G62" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L62" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M62" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>1</v>
+      </c>
+      <c r="S62" s="4">
+        <v>0</v>
+      </c>
+      <c r="T62" s="4">
+        <v>0</v>
+      </c>
+      <c r="U62" s="4">
+        <v>0</v>
+      </c>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C62)),V62+X62*V62,IF(A61&lt;A62,V62-X64*V64/2,IF(A62&lt;A64,V62-(X61*V61)/2,V62-(X64*V64+X61*V61)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C62)),W62+X62*W62,IF(A61&lt;A62,W62-X64*W64/2,IF(A62&lt;A64,W62-(X61*W61)/2,W62-(X64*W64+X61*W61)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <f t="shared" ref="AB62" si="19">Y62*(1-AA62)</f>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <f t="shared" ref="AC62" si="20">Y62*AA62 + Z62</f>
+        <v>0</v>
+      </c>
+      <c r="AD62" s="8">
+        <v>0</v>
+      </c>
       <c r="AE62" s="8"/>
-      <c r="AF62" s="9"/>
+      <c r="AF62" s="2">
+        <f t="shared" ref="AF62" si="21">AB62+AC62</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="X63" s="7"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="8"/>
+      <c r="A63">
+        <f>IF(B63=B61,A61,A61+1)</f>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>500</v>
+      </c>
+      <c r="G63" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H63">
+        <v>1576</v>
+      </c>
+      <c r="I63">
+        <v>1870</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0.25</v>
+      </c>
+      <c r="L63">
+        <v>2.6</v>
+      </c>
+      <c r="M63">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N63">
+        <v>0.04</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V63" s="2">
+        <v>36</v>
+      </c>
+      <c r="W63">
+        <v>13</v>
+      </c>
+      <c r="X63" s="7" t="str">
+        <f t="shared" ref="X63:X73" si="22">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C63)),V63+X63*V63,IF(A61&lt;A63,V63-X64*V64/2,IF(A63&lt;A64,V63-(X61*V61)/2,V63-(X64*V64+X61*V61)/2))),0)</f>
+        <v>28.65</v>
+      </c>
+      <c r="Z63" s="2">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C63)),W63+X63*W63,IF(A61&lt;A63,W63-X64*W64/2,IF(A63&lt;A64,W63-(X61*W61)/2,W63-(X64*W64+X61*W61)/2))),0)</f>
+        <v>10.62</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <f t="shared" si="15"/>
+        <v>28.65</v>
+      </c>
+      <c r="AC63" s="2">
+        <f t="shared" si="16"/>
+        <v>10.62</v>
+      </c>
+      <c r="AD63" s="8">
+        <f t="shared" ref="AD63:AD74" si="23">1.35*Y63+1.5*Z63</f>
+        <v>54.607500000000002</v>
+      </c>
       <c r="AE63" s="8"/>
-      <c r="AF63" s="9"/>
+      <c r="AF63" s="2">
+        <f t="shared" si="17"/>
+        <v>39.269999999999996</v>
+      </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="X64" s="7"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="8"/>
+      <c r="A64">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>500</v>
+      </c>
+      <c r="G64" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H64">
+        <v>1576</v>
+      </c>
+      <c r="I64">
+        <v>1870</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L64" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M64">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="N64">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V64" s="2">
+        <v>105</v>
+      </c>
+      <c r="W64">
+        <v>34</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" ref="Y64:Y74" si="24">IFERROR(IF(ISNUMBER(SEARCH("Appui",C64)),V64+X64*V64,IF(A63&lt;A64,V64-X65*V65/2,IF(A64&lt;A65,V64-(X63*V63)/2,V64-(X65*V65+X63*V63)/2))),0)</f>
+        <v>119.7</v>
+      </c>
+      <c r="Z64" s="2">
+        <f t="shared" ref="Z64:Z74" si="25">IFERROR(IF(ISNUMBER(SEARCH("Appui",C64)),W64+X64*W64,IF(A63&lt;A64,W64-X65*W65/2,IF(A64&lt;A65,W64-(X63*W63)/2,W64-(X65*W65+X63*W63)/2))),0)</f>
+        <v>38.76</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <f t="shared" si="15"/>
+        <v>119.7</v>
+      </c>
+      <c r="AC64" s="2">
+        <f t="shared" si="16"/>
+        <v>38.76</v>
+      </c>
+      <c r="AD64" s="8">
+        <f t="shared" si="23"/>
+        <v>219.73500000000001</v>
+      </c>
       <c r="AE64" s="8"/>
-      <c r="AF64" s="9"/>
+      <c r="AF64" s="2">
+        <f t="shared" si="17"/>
+        <v>158.46</v>
+      </c>
     </row>
-    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="10"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>500</v>
+      </c>
+      <c r="G65" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H65">
+        <v>1576</v>
+      </c>
+      <c r="I65">
+        <v>1870</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.25</v>
+      </c>
+      <c r="L65">
+        <v>2.6</v>
+      </c>
+      <c r="M65">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N65">
+        <v>0.04</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V65" s="2">
+        <v>32</v>
+      </c>
+      <c r="W65">
+        <v>15</v>
+      </c>
+      <c r="X65" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="25"/>
+        <v>8.82</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="16"/>
+        <v>8.82</v>
+      </c>
+      <c r="AD65" s="8">
+        <f t="shared" si="23"/>
+        <v>32.130000000000003</v>
+      </c>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="2">
+        <f t="shared" si="17"/>
+        <v>22.82</v>
+      </c>
     </row>
-    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>500</v>
+      </c>
+      <c r="G66" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H66">
+        <v>1576</v>
+      </c>
+      <c r="I66">
+        <v>1870</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="11">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L66" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M66">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="N66">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V66" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="W66">
+        <v>38</v>
+      </c>
+      <c r="X66" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="Y66" s="2">
+        <f t="shared" si="24"/>
+        <v>127.8</v>
+      </c>
+      <c r="Z66" s="2">
+        <f t="shared" si="25"/>
+        <v>45.6</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2">
+        <f t="shared" si="15"/>
+        <v>127.8</v>
+      </c>
+      <c r="AC66" s="2">
+        <f t="shared" si="16"/>
+        <v>45.6</v>
+      </c>
+      <c r="AD66" s="8">
+        <f t="shared" si="23"/>
+        <v>240.93</v>
+      </c>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="2">
+        <f t="shared" si="17"/>
+        <v>173.4</v>
+      </c>
     </row>
-    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="10"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>500</v>
+      </c>
+      <c r="G67" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H67">
+        <v>1576</v>
+      </c>
+      <c r="I67">
+        <v>1870</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0.25</v>
+      </c>
+      <c r="L67">
+        <v>2.6</v>
+      </c>
+      <c r="M67">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N67">
+        <v>0.04</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V67" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67">
+        <v>17</v>
+      </c>
+      <c r="X67" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <f t="shared" si="24"/>
+        <v>18.462499999999999</v>
+      </c>
+      <c r="Z67" s="2">
+        <f t="shared" si="25"/>
+        <v>10.012499999999999</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <f t="shared" si="15"/>
+        <v>18.462499999999999</v>
+      </c>
+      <c r="AC67" s="2">
+        <f t="shared" si="16"/>
+        <v>10.012499999999999</v>
+      </c>
+      <c r="AD67" s="8">
+        <f t="shared" si="23"/>
+        <v>39.943125000000002</v>
+      </c>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="2">
+        <f t="shared" si="17"/>
+        <v>28.474999999999998</v>
+      </c>
     </row>
-    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="G68" s="1"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>500</v>
+      </c>
+      <c r="G68" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H68">
+        <v>1576</v>
+      </c>
+      <c r="I68">
+        <v>1870</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="11">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L68" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="M68">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="N68">
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68" s="11">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V68" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="W68">
+        <v>42.5</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="Y68" s="2">
+        <f t="shared" si="24"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="Z68" s="2">
+        <f t="shared" si="25"/>
+        <v>48.875</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <f t="shared" si="15"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="AC68" s="2">
+        <f t="shared" si="16"/>
+        <v>48.875</v>
+      </c>
+      <c r="AD68" s="8">
+        <f t="shared" si="23"/>
+        <v>257.28375000000005</v>
+      </c>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="2">
+        <f t="shared" si="17"/>
+        <v>185.15</v>
+      </c>
     </row>
-    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>500</v>
+      </c>
+      <c r="G69" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H69">
+        <v>1576</v>
+      </c>
+      <c r="I69">
+        <v>1870</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.25</v>
+      </c>
+      <c r="L69">
+        <v>2.6</v>
+      </c>
+      <c r="M69">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N69">
+        <v>0.04</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V69" s="2">
+        <v>41</v>
+      </c>
+      <c r="W69">
+        <v>18</v>
+      </c>
+      <c r="X69" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2">
+        <f t="shared" si="24"/>
+        <v>23.225000000000001</v>
+      </c>
+      <c r="Z69" s="2">
+        <f t="shared" si="25"/>
+        <v>11.625</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="2">
+        <f t="shared" si="15"/>
+        <v>23.225000000000001</v>
+      </c>
+      <c r="AC69" s="2">
+        <f t="shared" si="16"/>
+        <v>11.625</v>
+      </c>
+      <c r="AD69" s="8">
+        <f t="shared" si="23"/>
+        <v>48.791250000000005</v>
+      </c>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="2">
+        <f t="shared" si="17"/>
+        <v>34.85</v>
+      </c>
     </row>
-    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H70">
+        <v>1576</v>
+      </c>
+      <c r="I70">
+        <v>1870</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="11">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L70" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="M70">
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="N70">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70" s="11">
+        <f>10+2</f>
+        <v>12</v>
+      </c>
+      <c r="V70" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="W70">
+        <v>42.5</v>
+      </c>
+      <c r="X70" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="Y70" s="2">
+        <f t="shared" si="24"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="Z70" s="2">
+        <f t="shared" si="25"/>
+        <v>48.875</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2">
+        <f t="shared" si="15"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="AC70" s="2">
+        <f t="shared" si="16"/>
+        <v>48.875</v>
+      </c>
+      <c r="AD70" s="8">
+        <f t="shared" si="23"/>
+        <v>257.28375000000005</v>
+      </c>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="2">
+        <f t="shared" si="17"/>
+        <v>185.15</v>
+      </c>
     </row>
-    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="G71" s="1"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>500</v>
+      </c>
+      <c r="G71" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H71">
+        <v>1576</v>
+      </c>
+      <c r="I71">
+        <v>1870</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0.25</v>
+      </c>
+      <c r="L71">
+        <v>2.6</v>
+      </c>
+      <c r="M71">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N71">
+        <v>0.04</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V71" s="2">
+        <v>41</v>
+      </c>
+      <c r="W71">
+        <v>18</v>
+      </c>
+      <c r="X71" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2">
+        <f t="shared" si="24"/>
+        <v>23.225000000000001</v>
+      </c>
+      <c r="Z71" s="2">
+        <f t="shared" si="25"/>
+        <v>11.85</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2">
+        <f t="shared" si="15"/>
+        <v>23.225000000000001</v>
+      </c>
+      <c r="AC71" s="2">
+        <f t="shared" si="16"/>
+        <v>11.85</v>
+      </c>
+      <c r="AD71" s="8">
+        <f t="shared" si="23"/>
+        <v>49.128750000000004</v>
+      </c>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="2">
+        <f t="shared" si="17"/>
+        <v>35.075000000000003</v>
+      </c>
     </row>
-    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="G72" s="1"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>500</v>
+      </c>
+      <c r="G72" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H72">
+        <v>1576</v>
+      </c>
+      <c r="I72">
+        <v>1870</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="11">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="L72" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M72">
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="N72">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72" s="11">
+        <f>5-1</f>
+        <v>4</v>
+      </c>
+      <c r="V72" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="W72">
+        <v>39.5</v>
+      </c>
+      <c r="X72" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="Y72" s="2">
+        <f t="shared" si="24"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="Z72" s="2">
+        <f t="shared" si="25"/>
+        <v>45.424999999999997</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="2">
+        <f t="shared" si="15"/>
+        <v>136.27500000000001</v>
+      </c>
+      <c r="AC72" s="2">
+        <f t="shared" si="16"/>
+        <v>45.424999999999997</v>
+      </c>
+      <c r="AD72" s="8">
+        <f t="shared" si="23"/>
+        <v>252.10875000000001</v>
+      </c>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="2">
+        <f t="shared" si="17"/>
+        <v>181.7</v>
+      </c>
     </row>
-    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="9"/>
-      <c r="AF73" s="9"/>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
+      </c>
+      <c r="G73" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H73">
+        <v>1576</v>
+      </c>
+      <c r="I73">
+        <v>1870</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0.25</v>
+      </c>
+      <c r="L73">
+        <v>2.6</v>
+      </c>
+      <c r="M73">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="N73">
+        <v>0.04</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" s="11">
+        <f>15-1</f>
+        <v>14</v>
+      </c>
+      <c r="V73" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="W73">
+        <v>13</v>
+      </c>
+      <c r="X73" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <f t="shared" si="24"/>
+        <v>24.012499999999999</v>
+      </c>
+      <c r="Z73" s="2">
+        <f t="shared" si="25"/>
+        <v>10.0375</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
+        <f t="shared" si="15"/>
+        <v>24.012499999999999</v>
+      </c>
+      <c r="AC73" s="2">
+        <f t="shared" si="16"/>
+        <v>10.0375</v>
+      </c>
+      <c r="AD73" s="8">
+        <f t="shared" si="23"/>
+        <v>47.473125000000003</v>
+      </c>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="2">
+        <f t="shared" si="17"/>
+        <v>34.049999999999997</v>
+      </c>
     </row>
-    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="9"/>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>500</v>
+      </c>
+      <c r="G74" s="1">
+        <v>220000</v>
+      </c>
+      <c r="H74">
+        <v>1576</v>
+      </c>
+      <c r="I74">
+        <v>1870</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0.25</v>
+      </c>
+      <c r="L74">
+        <v>2.6</v>
+      </c>
+      <c r="M74">
+        <v>1.3338E-3</v>
+      </c>
+      <c r="N74">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2">
+        <v>55</v>
+      </c>
+      <c r="W74">
+        <v>21</v>
+      </c>
+      <c r="X74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="Z74" s="2">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="2">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="AC74" s="2">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="AD74" s="8">
+        <f t="shared" si="23"/>
+        <v>105.75</v>
+      </c>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="2">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" ref="A75" si="26">IF(B75=B74,A74,A74+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="4">
+        <v>25</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="4">
+        <v>500</v>
+      </c>
+      <c r="G75" s="5">
+        <v>220000</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1576</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1870</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L75" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M75" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+      <c r="R75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4">
+        <v>0</v>
+      </c>
+      <c r="T75" s="4">
+        <v>0</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0</v>
+      </c>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="2">
+        <f t="shared" ref="Y75" si="27">IFERROR(IF(ISNUMBER(SEARCH("Appui",C75)),V75+X75*V75,IF(A74&lt;A75,V75-X76*V76/2,IF(A75&lt;A76,V75-(X74*V74)/2,V75-(X76*V76+X74*V74)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2">
+        <f t="shared" ref="Z75" si="28">IFERROR(IF(ISNUMBER(SEARCH("Appui",C75)),W75+X75*W75,IF(A74&lt;A75,W75-X76*W76/2,IF(A75&lt;A76,W75-(X74*W74)/2,W75-(X76*W76+X74*W74)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="2">
+        <f t="shared" ref="AB75" si="29">Y75*(1-AA75)</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="2">
+        <f t="shared" ref="AC75" si="30">Y75*AA75 + Z75</f>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="2">
+        <f t="shared" ref="AF75" si="31">AB75+AC75</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
+      <c r="AA76" s="10"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -7578,7 +8934,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -7590,7 +8946,9 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -7600,7 +8958,8 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="X80" s="7"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AB80" s="9"/>
@@ -7609,16 +8968,20 @@
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
     </row>
+    <row r="81" spans="25:32" x14ac:dyDescent="0.35">
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X3:X67">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="X3:X80">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A3="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X69:X70 X73:X79">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$A69="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
